--- a/Server/PlanTo/config/1参数.xlsx
+++ b/Server/PlanTo/config/1参数.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Paramter" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,18 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>参数</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>cs</t>
   </si>
   <si>
     <t>背包格子默认叠加上限</t>
@@ -76,6 +67,38 @@
   </si>
   <si>
     <t>初级寻宝消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -440,99 +463,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B4">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
